--- a/PNTeam3/Assets/[FFO]DialogSystem/Datas/Sentences.xlsx
+++ b/PNTeam3/Assets/[FFO]DialogSystem/Datas/Sentences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filin\Documents\_Intervenant\_E-Artsup\_Project\EartsupProject\Assets\[FFO]DialogSystem\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maceo\Documents\GitHub\ProjetNarratifTeam3\PNTeam3\Assets\[FFO]DialogSystem\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60895ECF-6C4C-4971-9D5B-6DBCBC66FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97146895-172E-448C-BC98-5F68DC2733E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>KEY</t>
   </si>
@@ -50,9 +50,6 @@
     <t>FR</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>EN</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>0_DEFAULT_KEY_EN</t>
   </si>
   <si>
-    <t>0_DEFAULT_KEY_SP</t>
-  </si>
-  <si>
     <t>OTHER_KEY</t>
   </si>
   <si>
@@ -74,7 +68,7 @@
     <t>0_OTHER_KEY_EN</t>
   </si>
   <si>
-    <t>0_OTHER_KEY_SP</t>
+    <t>VALUEWAR</t>
   </si>
 </sst>
 </file>
@@ -398,19 +392,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -421,13 +415,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f xml:space="preserve"> 0</f>
         <v>0</v>
@@ -436,31 +430,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+      <c r="E3" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
